--- a/inst/external/modland_products.xlsx
+++ b/inst/external/modland_products.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\repo\MODIS\inst\external\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florianD\Coding\repo\MODIS\inst\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81623B15-4380-4D23-A777-2DF81BA6D318}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 4 - 5.5" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="186">
   <si>
     <t>Name</t>
   </si>
@@ -60,18 +61,12 @@
     <t>MCD12Q2</t>
   </si>
   <si>
-    <t>MCD15A2</t>
-  </si>
-  <si>
     <t>Leaf Area Index and Fractional Photosynthetically Active Radiation</t>
   </si>
   <si>
     <t>Composites</t>
   </si>
   <si>
-    <t>MCD15A3</t>
-  </si>
-  <si>
     <t>MCD43A1</t>
   </si>
   <si>
@@ -87,18 +82,6 @@
     <t>MCD43A4</t>
   </si>
   <si>
-    <t>MCD43B1</t>
-  </si>
-  <si>
-    <t>MCD43B2</t>
-  </si>
-  <si>
-    <t>MCD43B3</t>
-  </si>
-  <si>
-    <t>MCD43B4</t>
-  </si>
-  <si>
     <t>MCD43C1</t>
   </si>
   <si>
@@ -111,9 +94,6 @@
     <t>MCD43C4</t>
   </si>
   <si>
-    <t>MCD45A1</t>
-  </si>
-  <si>
     <t>Thermal Anomalies and Fire</t>
   </si>
   <si>
@@ -204,12 +184,6 @@
     <t>MOD14A2</t>
   </si>
   <si>
-    <t>MOD15A2</t>
-  </si>
-  <si>
-    <t>MOD17A2</t>
-  </si>
-  <si>
     <t>Gross Primary Productivity</t>
   </si>
   <si>
@@ -219,403 +193,403 @@
     <t>Net Primary Productivity</t>
   </si>
   <si>
-    <t>MOD44A</t>
-  </si>
-  <si>
     <t>Vegetation Continuous Cover/Fields</t>
   </si>
   <si>
     <t>MOD44B</t>
   </si>
   <si>
+    <t>MYD09A1</t>
+  </si>
+  <si>
+    <t>Aqua MODIS</t>
+  </si>
+  <si>
+    <t>MYD09CMG</t>
+  </si>
+  <si>
+    <t>MYD09GA</t>
+  </si>
+  <si>
+    <t>MYD09GQ</t>
+  </si>
+  <si>
+    <t>MYD09Q1</t>
+  </si>
+  <si>
+    <t>MYD11_L2</t>
+  </si>
+  <si>
+    <t>MYD11A1</t>
+  </si>
+  <si>
+    <t>MYD11A2</t>
+  </si>
+  <si>
+    <t>MYD11B1</t>
+  </si>
+  <si>
+    <t>MYD11C1</t>
+  </si>
+  <si>
+    <t>MYD11C2</t>
+  </si>
+  <si>
+    <t>MYD11C3</t>
+  </si>
+  <si>
+    <t>MYD13A1</t>
+  </si>
+  <si>
+    <t>MYD13A2</t>
+  </si>
+  <si>
+    <t>MYD13A3</t>
+  </si>
+  <si>
+    <t>MYD13C1</t>
+  </si>
+  <si>
+    <t>MYD13C2</t>
+  </si>
+  <si>
+    <t>MYD13Q1</t>
+  </si>
+  <si>
+    <t>MYD14</t>
+  </si>
+  <si>
+    <t>MYD14A1</t>
+  </si>
+  <si>
+    <t>MYD14A2</t>
+  </si>
+  <si>
+    <t>MCD15A2H</t>
+  </si>
+  <si>
+    <t>MCD15A3H</t>
+  </si>
+  <si>
+    <t>MCD18A1</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>MCD18A2</t>
+  </si>
+  <si>
+    <t>MCD43D01</t>
+  </si>
+  <si>
+    <t>MCD43D02</t>
+  </si>
+  <si>
+    <t>MCD43D03</t>
+  </si>
+  <si>
+    <t>MCD43D04</t>
+  </si>
+  <si>
+    <t>MCD43D05</t>
+  </si>
+  <si>
+    <t>MCD43D06</t>
+  </si>
+  <si>
+    <t>MCD43D07</t>
+  </si>
+  <si>
+    <t>MCD43D08</t>
+  </si>
+  <si>
+    <t>MCD43D09</t>
+  </si>
+  <si>
+    <t>MCD43D10</t>
+  </si>
+  <si>
+    <t>MCD43D11</t>
+  </si>
+  <si>
+    <t>MCD43D12</t>
+  </si>
+  <si>
+    <t>MCD43D13</t>
+  </si>
+  <si>
+    <t>MCD43D14</t>
+  </si>
+  <si>
+    <t>MCD43D15</t>
+  </si>
+  <si>
+    <t>MCD43D16</t>
+  </si>
+  <si>
+    <t>MCD43D17</t>
+  </si>
+  <si>
+    <t>MCD43D18</t>
+  </si>
+  <si>
+    <t>MCD43D19</t>
+  </si>
+  <si>
+    <t>MCD43D20</t>
+  </si>
+  <si>
+    <t>MCD43D21</t>
+  </si>
+  <si>
+    <t>MCD43D22</t>
+  </si>
+  <si>
+    <t>MCD43D23</t>
+  </si>
+  <si>
+    <t>MCD43D24</t>
+  </si>
+  <si>
+    <t>MCD43D25</t>
+  </si>
+  <si>
+    <t>MCD43D26</t>
+  </si>
+  <si>
+    <t>MCD43D27</t>
+  </si>
+  <si>
+    <t>MCD43D28</t>
+  </si>
+  <si>
+    <t>MCD43D29</t>
+  </si>
+  <si>
+    <t>MCD43D30</t>
+  </si>
+  <si>
+    <t>MCD43D31</t>
+  </si>
+  <si>
+    <t>MCD43D32</t>
+  </si>
+  <si>
+    <t>MCD43D33</t>
+  </si>
+  <si>
+    <t>MCD43D34</t>
+  </si>
+  <si>
+    <t>MCD43D35</t>
+  </si>
+  <si>
+    <t>MCD43D36</t>
+  </si>
+  <si>
+    <t>MCD43D37</t>
+  </si>
+  <si>
+    <t>MCD43D38</t>
+  </si>
+  <si>
+    <t>MCD43D39</t>
+  </si>
+  <si>
+    <t>MCD43D40</t>
+  </si>
+  <si>
+    <t>MCD43D41</t>
+  </si>
+  <si>
+    <t>MCD43D42</t>
+  </si>
+  <si>
+    <t>MCD43D43</t>
+  </si>
+  <si>
+    <t>MCD43D44</t>
+  </si>
+  <si>
+    <t>MCD43D45</t>
+  </si>
+  <si>
+    <t>MCD43D46</t>
+  </si>
+  <si>
+    <t>MCD43D47</t>
+  </si>
+  <si>
+    <t>MCD43D48</t>
+  </si>
+  <si>
+    <t>MCD43D49</t>
+  </si>
+  <si>
+    <t>MCD43D50</t>
+  </si>
+  <si>
+    <t>MCD43D51</t>
+  </si>
+  <si>
+    <t>MCD43D52</t>
+  </si>
+  <si>
+    <t>MCD43D53</t>
+  </si>
+  <si>
+    <t>MCD43D54</t>
+  </si>
+  <si>
+    <t>MCD43D55</t>
+  </si>
+  <si>
+    <t>MCD43D56</t>
+  </si>
+  <si>
+    <t>MCD43D57</t>
+  </si>
+  <si>
+    <t>MCD43D58</t>
+  </si>
+  <si>
+    <t>MCD43D59</t>
+  </si>
+  <si>
+    <t>MCD43D60</t>
+  </si>
+  <si>
+    <t>MCD43D61</t>
+  </si>
+  <si>
+    <t>MCD43D62</t>
+  </si>
+  <si>
+    <t>MCD43D63</t>
+  </si>
+  <si>
+    <t>MCD43D64</t>
+  </si>
+  <si>
+    <t>MCD43D65</t>
+  </si>
+  <si>
+    <t>MCD43D66</t>
+  </si>
+  <si>
+    <t>MCD43D67</t>
+  </si>
+  <si>
+    <t>MCD43D68</t>
+  </si>
+  <si>
+    <t>MCD64A1</t>
+  </si>
+  <si>
+    <t>MOD11B2</t>
+  </si>
+  <si>
+    <t>MOD11B3</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>MOD15A2H</t>
+  </si>
+  <si>
+    <t>MOD16A2</t>
+  </si>
+  <si>
+    <t>Evapotranspiration</t>
+  </si>
+  <si>
+    <t>MOD16A3</t>
+  </si>
+  <si>
+    <t>MOD17A2H</t>
+  </si>
+  <si>
+    <t>MOD17A3H</t>
+  </si>
+  <si>
+    <t>MOD21</t>
+  </si>
+  <si>
+    <t>MOD21A1D</t>
+  </si>
+  <si>
+    <t>MOD21A1N</t>
+  </si>
+  <si>
+    <t>MOD21A2</t>
+  </si>
+  <si>
+    <t>MODOCGA</t>
+  </si>
+  <si>
+    <t>MODTBGA</t>
+  </si>
+  <si>
+    <t>MYD11B2</t>
+  </si>
+  <si>
+    <t>MYD11B3</t>
+  </si>
+  <si>
+    <t>MYD15A2H</t>
+  </si>
+  <si>
+    <t>MYD16A2</t>
+  </si>
+  <si>
+    <t>MYD16A3</t>
+  </si>
+  <si>
+    <t>MYD17A2H</t>
+  </si>
+  <si>
+    <t>MYD17A3H</t>
+  </si>
+  <si>
+    <t>MYD21</t>
+  </si>
+  <si>
+    <t>MYD21A1D</t>
+  </si>
+  <si>
+    <t>MYD21A1N</t>
+  </si>
+  <si>
+    <t>MYD21A2</t>
+  </si>
+  <si>
+    <t>MYDOCGA</t>
+  </si>
+  <si>
+    <t>MYDTBGA</t>
+  </si>
+  <si>
+    <t>MCD19A1</t>
+  </si>
+  <si>
+    <t>MCD19A2</t>
+  </si>
+  <si>
+    <t>Aerosol Optical Depth</t>
+  </si>
+  <si>
+    <t>MCD19A3</t>
+  </si>
+  <si>
     <t>MOD44W</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>MYD09A1</t>
-  </si>
-  <si>
-    <t>Aqua MODIS</t>
-  </si>
-  <si>
-    <t>MYD09CMG</t>
-  </si>
-  <si>
-    <t>MYD09GA</t>
-  </si>
-  <si>
-    <t>MYD09GQ</t>
-  </si>
-  <si>
-    <t>MYD09Q1</t>
-  </si>
-  <si>
-    <t>MYD11_L2</t>
-  </si>
-  <si>
-    <t>MYD11A1</t>
-  </si>
-  <si>
-    <t>MYD11A2</t>
-  </si>
-  <si>
-    <t>MYD11B1</t>
-  </si>
-  <si>
-    <t>MYD11C1</t>
-  </si>
-  <si>
-    <t>MYD11C2</t>
-  </si>
-  <si>
-    <t>MYD11C3</t>
-  </si>
-  <si>
-    <t>MYD13A1</t>
-  </si>
-  <si>
-    <t>MYD13A2</t>
-  </si>
-  <si>
-    <t>MYD13A3</t>
-  </si>
-  <si>
-    <t>MYD13C1</t>
-  </si>
-  <si>
-    <t>MYD13C2</t>
-  </si>
-  <si>
-    <t>MYD13Q1</t>
-  </si>
-  <si>
-    <t>MYD14</t>
-  </si>
-  <si>
-    <t>MYD14A1</t>
-  </si>
-  <si>
-    <t>MYD14A2</t>
-  </si>
-  <si>
-    <t>MYD15A2</t>
-  </si>
-  <si>
-    <t>MYD17A2</t>
-  </si>
-  <si>
-    <t>MCD15A2H</t>
-  </si>
-  <si>
-    <t>MCD15A3H</t>
-  </si>
-  <si>
-    <t>MCD18A1</t>
-  </si>
-  <si>
-    <t>Radiation</t>
-  </si>
-  <si>
-    <t>MCD18A2</t>
-  </si>
-  <si>
-    <t>MCD43D01</t>
-  </si>
-  <si>
-    <t>MCD43D02</t>
-  </si>
-  <si>
-    <t>MCD43D03</t>
-  </si>
-  <si>
-    <t>MCD43D04</t>
-  </si>
-  <si>
-    <t>MCD43D05</t>
-  </si>
-  <si>
-    <t>MCD43D06</t>
-  </si>
-  <si>
-    <t>MCD43D07</t>
-  </si>
-  <si>
-    <t>MCD43D08</t>
-  </si>
-  <si>
-    <t>MCD43D09</t>
-  </si>
-  <si>
-    <t>MCD43D10</t>
-  </si>
-  <si>
-    <t>MCD43D11</t>
-  </si>
-  <si>
-    <t>MCD43D12</t>
-  </si>
-  <si>
-    <t>MCD43D13</t>
-  </si>
-  <si>
-    <t>MCD43D14</t>
-  </si>
-  <si>
-    <t>MCD43D15</t>
-  </si>
-  <si>
-    <t>MCD43D16</t>
-  </si>
-  <si>
-    <t>MCD43D17</t>
-  </si>
-  <si>
-    <t>MCD43D18</t>
-  </si>
-  <si>
-    <t>MCD43D19</t>
-  </si>
-  <si>
-    <t>MCD43D20</t>
-  </si>
-  <si>
-    <t>MCD43D21</t>
-  </si>
-  <si>
-    <t>MCD43D22</t>
-  </si>
-  <si>
-    <t>MCD43D23</t>
-  </si>
-  <si>
-    <t>MCD43D24</t>
-  </si>
-  <si>
-    <t>MCD43D25</t>
-  </si>
-  <si>
-    <t>MCD43D26</t>
-  </si>
-  <si>
-    <t>MCD43D27</t>
-  </si>
-  <si>
-    <t>MCD43D28</t>
-  </si>
-  <si>
-    <t>MCD43D29</t>
-  </si>
-  <si>
-    <t>MCD43D30</t>
-  </si>
-  <si>
-    <t>MCD43D31</t>
-  </si>
-  <si>
-    <t>MCD43D32</t>
-  </si>
-  <si>
-    <t>MCD43D33</t>
-  </si>
-  <si>
-    <t>MCD43D34</t>
-  </si>
-  <si>
-    <t>MCD43D35</t>
-  </si>
-  <si>
-    <t>MCD43D36</t>
-  </si>
-  <si>
-    <t>MCD43D37</t>
-  </si>
-  <si>
-    <t>MCD43D38</t>
-  </si>
-  <si>
-    <t>MCD43D39</t>
-  </si>
-  <si>
-    <t>MCD43D40</t>
-  </si>
-  <si>
-    <t>MCD43D41</t>
-  </si>
-  <si>
-    <t>MCD43D42</t>
-  </si>
-  <si>
-    <t>MCD43D43</t>
-  </si>
-  <si>
-    <t>MCD43D44</t>
-  </si>
-  <si>
-    <t>MCD43D45</t>
-  </si>
-  <si>
-    <t>MCD43D46</t>
-  </si>
-  <si>
-    <t>MCD43D47</t>
-  </si>
-  <si>
-    <t>MCD43D48</t>
-  </si>
-  <si>
-    <t>MCD43D49</t>
-  </si>
-  <si>
-    <t>MCD43D50</t>
-  </si>
-  <si>
-    <t>MCD43D51</t>
-  </si>
-  <si>
-    <t>MCD43D52</t>
-  </si>
-  <si>
-    <t>MCD43D53</t>
-  </si>
-  <si>
-    <t>MCD43D54</t>
-  </si>
-  <si>
-    <t>MCD43D55</t>
-  </si>
-  <si>
-    <t>MCD43D56</t>
-  </si>
-  <si>
-    <t>MCD43D57</t>
-  </si>
-  <si>
-    <t>MCD43D58</t>
-  </si>
-  <si>
-    <t>MCD43D59</t>
-  </si>
-  <si>
-    <t>MCD43D60</t>
-  </si>
-  <si>
-    <t>MCD43D61</t>
-  </si>
-  <si>
-    <t>MCD43D62</t>
-  </si>
-  <si>
-    <t>MCD43D63</t>
-  </si>
-  <si>
-    <t>MCD43D64</t>
-  </si>
-  <si>
-    <t>MCD43D65</t>
-  </si>
-  <si>
-    <t>MCD43D66</t>
-  </si>
-  <si>
-    <t>MCD43D67</t>
-  </si>
-  <si>
-    <t>MCD43D68</t>
-  </si>
-  <si>
-    <t>MCD64A1</t>
-  </si>
-  <si>
-    <t>MOD11B2</t>
-  </si>
-  <si>
-    <t>MOD11B3</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>MOD15A2H</t>
-  </si>
-  <si>
-    <t>MOD16A2</t>
-  </si>
-  <si>
-    <t>Evapotranspiration</t>
-  </si>
-  <si>
-    <t>MOD16A3</t>
-  </si>
-  <si>
-    <t>MOD17A2H</t>
-  </si>
-  <si>
-    <t>MOD17A3H</t>
-  </si>
-  <si>
-    <t>MOD21</t>
-  </si>
-  <si>
-    <t>MOD21A1D</t>
-  </si>
-  <si>
-    <t>MOD21A1N</t>
-  </si>
-  <si>
-    <t>MOD21A2</t>
-  </si>
-  <si>
-    <t>MODOCGA</t>
-  </si>
-  <si>
-    <t>MODTBGA</t>
-  </si>
-  <si>
-    <t>MYD11B2</t>
-  </si>
-  <si>
-    <t>MYD11B3</t>
-  </si>
-  <si>
-    <t>MYD15A2H</t>
-  </si>
-  <si>
-    <t>MYD16A2</t>
-  </si>
-  <si>
-    <t>MYD16A3</t>
-  </si>
-  <si>
-    <t>MYD17A2H</t>
-  </si>
-  <si>
-    <t>MYD17A3H</t>
-  </si>
-  <si>
-    <t>MYD21</t>
-  </si>
-  <si>
-    <t>MYD21A1D</t>
-  </si>
-  <si>
-    <t>MYD21A1N</t>
-  </si>
-  <si>
-    <t>MYD21A2</t>
-  </si>
-  <si>
-    <t>MYDOCGA</t>
-  </si>
-  <si>
-    <t>MYDTBGA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:E69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,1192 +1007,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>500</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>500</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>500</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2">
-        <v>500</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2">
-        <v>500</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2">
-        <v>500</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2">
-        <v>250</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2">
-        <v>250</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="2">
-        <v>500</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="2">
-        <v>250</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="2">
-        <v>250</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="2">
-        <v>250</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="2">
-        <v>250</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="2">
-        <v>500</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="2">
-        <v>250</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="2">
-        <v>250</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="2">
-        <v>500</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="2">
-        <v>5600</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="2">
-        <v>250</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd12c1"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd12q1"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd12q2"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd15a2"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd15a3"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43a1"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43a2"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43a3"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43a4"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43b1"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43b2"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43b3"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43b4"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43c1"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43c2"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43c3"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43c4"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd45a1"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09a1"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09cmg"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09ga"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09gq"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09q1"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11_l2"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11a1"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11a2"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11b1"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11c1"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11c2"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11c3"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13a1"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13a2"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13a3"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13c1"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13c2"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13q1"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod14"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod14a1"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod14a2"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod15a2"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod17a2"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod17a3"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod44a"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod44b"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod44w"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09a1"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09cmg"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09ga"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09gq"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09q1"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11_l2"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11a1"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11a2"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11b1"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11c1"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11c2"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11c3"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13a1"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13a2"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13a3"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13c1"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13c2"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13q1"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd14"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd14a1"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd14a2"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd15a2"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd17a2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E151"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,1937 +1064,1937 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>500</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>5600</v>
+        <v>500</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>5600</v>
+        <v>500</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>500</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="D9" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>5600</v>
+        <v>500</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
-        <v>5600</v>
+        <v>500</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>5600</v>
+        <v>500</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
         <v>1000</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <v>1000</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2">
         <v>1000</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2">
         <v>1000</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2">
         <v>1000</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
         <v>1000</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2">
         <v>1000</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2">
         <v>1000</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2">
         <v>1000</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
         <v>1000</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2">
         <v>1000</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2">
         <v>1000</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2">
         <v>1000</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2">
         <v>1000</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
         <v>1000</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2">
         <v>1000</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2">
         <v>1000</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
         <v>1000</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2">
         <v>1000</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2">
         <v>1000</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2">
         <v>1000</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2">
         <v>1000</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2">
         <v>1000</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2">
         <v>1000</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2">
         <v>1000</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2">
         <v>1000</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2">
         <v>1000</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2">
         <v>1000</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2">
         <v>1000</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2">
         <v>1000</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2">
         <v>1000</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2">
         <v>1000</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2">
         <v>1000</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2">
         <v>1000</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2">
         <v>1000</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2">
         <v>1000</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2">
         <v>1000</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2">
         <v>1000</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2">
         <v>1000</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2">
         <v>1000</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2">
         <v>1000</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2">
         <v>1000</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2">
         <v>1000</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2">
         <v>1000</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2">
         <v>1000</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2">
         <v>1000</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2">
         <v>1000</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2">
         <v>1000</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2">
         <v>1000</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2">
         <v>1000</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2">
         <v>1000</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2">
         <v>1000</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2">
         <v>1000</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2">
         <v>1000</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2">
         <v>1000</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2">
         <v>1000</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2">
         <v>1000</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2">
         <v>1000</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2">
         <v>1000</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2">
         <v>1000</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2">
         <v>1000</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2">
         <v>1000</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2">
         <v>1000</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1000</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D88" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="2">
-        <v>1000</v>
+        <v>26</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D91" s="2">
-        <v>5600</v>
+        <v>250</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D92" s="2">
-        <v>5600</v>
+        <v>250</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>5600</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="D98" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>5600</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>5600</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D102" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D103" s="2">
         <v>1000</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D104" s="2">
         <v>1000</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D105" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D106" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="D107" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="D108" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D109" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D110" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="D112" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="D113" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D114" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D115" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -4185,237 +3002,237 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>1000</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>1000</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="D120" s="2">
+        <v>250</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D121" s="2">
         <v>250</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D123" s="2">
         <v>1000</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D124" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D125" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="2">
-        <v>5600</v>
+        <v>26</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D127" s="2">
-        <v>5600</v>
+        <v>250</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D128" s="2">
-        <v>5600</v>
+        <v>250</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>35</v>
@@ -4423,532 +3240,482 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>5600</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>5600</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
-        <v>250</v>
+        <v>5600</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D138" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D139" s="2">
         <v>1000</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D140" s="2">
         <v>1000</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" s="2">
+        <v>5600</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D141" s="2">
-        <v>500</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="D142" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="D143" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D145" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D146" s="2">
         <v>1000</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="D148" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="D149" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D150" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D151" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>35</v>
+      <c r="A151" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151">
+        <v>500</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152">
+        <v>1000</v>
+      </c>
+      <c r="E152" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" t="s">
+        <v>58</v>
+      </c>
+      <c r="C153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153">
+        <v>1000</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>177</v>
+      </c>
+      <c r="B154" t="s">
+        <v>58</v>
+      </c>
+      <c r="C154" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154">
+        <v>1000</v>
+      </c>
+      <c r="E154" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155">
+        <v>1000</v>
+      </c>
+      <c r="E155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>179</v>
+      </c>
+      <c r="B156" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156">
+        <v>1000</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157">
+        <v>1000</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd15a2h_v006"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd15a3h_v006"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd18a1_v006"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd18a2_v006"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43a1_v006"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43a2_v006"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43a3_v006"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43a4_v006"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43c1_v006"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43c2_v006"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43c3_v006"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43c4_v006"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d01_v006"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d02_v006"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d03_v006"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d04_v006"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d05_v006"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d06_v006"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d07_v006"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d08_v006"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d09_v006"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d10_v006"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d11_v006"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d12_v006"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d13_v006"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d14_v006"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d15_v006"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d16_v006"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d17_v006"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d18_v006"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d19_v006"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d20_v006"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d21_v006"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d22_v006"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d23_v006"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d24_v006"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d25_v006"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d26_v006"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d27_v006"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d28_v006"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d29_v006"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d30_v006"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d31_v006"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d32_v006"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d33_v006"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d34_v006"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d35_v006"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d36_v006"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d37_v006"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d38_v006"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d39_v006"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d40_v006"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d41_v006"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d42_v006"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d43_v006"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d44_v006"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d45_v006"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d46_v006"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d47_v006"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d48_v006"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d49_v006"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d50_v006"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d51_v006"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d52_v006"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d53_v006"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d54_v006"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d55_v006"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d56_v006"/>
-    <hyperlink ref="A70" r:id="rId69" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d57_v006"/>
-    <hyperlink ref="A71" r:id="rId70" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d58_v006"/>
-    <hyperlink ref="A72" r:id="rId71" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d59_v006"/>
-    <hyperlink ref="A73" r:id="rId72" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d60_v006"/>
-    <hyperlink ref="A74" r:id="rId73" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d61_v006"/>
-    <hyperlink ref="A75" r:id="rId74" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d62_v006"/>
-    <hyperlink ref="A76" r:id="rId75" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d63_v006"/>
-    <hyperlink ref="A77" r:id="rId76" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d64_v006"/>
-    <hyperlink ref="A78" r:id="rId77" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d65_v006"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d66_v006"/>
-    <hyperlink ref="A80" r:id="rId79" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d67_v006"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd43d68_v006"/>
-    <hyperlink ref="A82" r:id="rId81" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mcd64a1_v006"/>
-    <hyperlink ref="A83" r:id="rId82" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09a1_v006"/>
-    <hyperlink ref="A84" r:id="rId83" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09cmg_v006"/>
-    <hyperlink ref="A85" r:id="rId84" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09ga_v006"/>
-    <hyperlink ref="A86" r:id="rId85" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09gq_v006"/>
-    <hyperlink ref="A87" r:id="rId86" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod09q1_v006"/>
-    <hyperlink ref="A88" r:id="rId87" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11_l2_v006"/>
-    <hyperlink ref="A89" r:id="rId88" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11a1_v006"/>
-    <hyperlink ref="A90" r:id="rId89" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11a2_v006"/>
-    <hyperlink ref="A91" r:id="rId90" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11b1_v006"/>
-    <hyperlink ref="A92" r:id="rId91" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11b2_v006"/>
-    <hyperlink ref="A93" r:id="rId92" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11b3_v006"/>
-    <hyperlink ref="A94" r:id="rId93" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11c1_v006"/>
-    <hyperlink ref="A95" r:id="rId94" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11c2_v006"/>
-    <hyperlink ref="A96" r:id="rId95" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod11c3_v006"/>
-    <hyperlink ref="A97" r:id="rId96" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13a1_v006"/>
-    <hyperlink ref="A98" r:id="rId97" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13a2_v006"/>
-    <hyperlink ref="A99" r:id="rId98" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13a3_v006"/>
-    <hyperlink ref="A100" r:id="rId99" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13c1_v006"/>
-    <hyperlink ref="A101" r:id="rId100" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13c2_v006"/>
-    <hyperlink ref="A102" r:id="rId101" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod13q1_v006"/>
-    <hyperlink ref="A103" r:id="rId102" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod14_v006"/>
-    <hyperlink ref="A104" r:id="rId103" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod14a1_v006"/>
-    <hyperlink ref="A105" r:id="rId104" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod14a2_v006"/>
-    <hyperlink ref="A106" r:id="rId105" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod15a2h_v006"/>
-    <hyperlink ref="A107" r:id="rId106" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod16a2_v006"/>
-    <hyperlink ref="A108" r:id="rId107" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod16a3_v006"/>
-    <hyperlink ref="A109" r:id="rId108" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod17a2h_v006"/>
-    <hyperlink ref="A110" r:id="rId109" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod17a3h_v006"/>
-    <hyperlink ref="A111" r:id="rId110" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod21_v006"/>
-    <hyperlink ref="A112" r:id="rId111" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod21a1d_v006"/>
-    <hyperlink ref="A113" r:id="rId112" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod21a1n_v006"/>
-    <hyperlink ref="A114" r:id="rId113" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod21a2_v006"/>
-    <hyperlink ref="A115" r:id="rId114" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mod44b_v006"/>
-    <hyperlink ref="A116" r:id="rId115" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/modocga_v006"/>
-    <hyperlink ref="A117" r:id="rId116" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/modtbga_v006"/>
-    <hyperlink ref="A118" r:id="rId117" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09a1_v006"/>
-    <hyperlink ref="A119" r:id="rId118" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09cmg_v006"/>
-    <hyperlink ref="A120" r:id="rId119" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09ga_v006"/>
-    <hyperlink ref="A121" r:id="rId120" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09gq_v006"/>
-    <hyperlink ref="A122" r:id="rId121" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd09q1_v006"/>
-    <hyperlink ref="A123" r:id="rId122" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11_l2_v006"/>
-    <hyperlink ref="A124" r:id="rId123" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11a1_v006"/>
-    <hyperlink ref="A125" r:id="rId124" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11a2_v006"/>
-    <hyperlink ref="A126" r:id="rId125" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11b1_v006"/>
-    <hyperlink ref="A127" r:id="rId126" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11b2_v006"/>
-    <hyperlink ref="A128" r:id="rId127" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11b3_v006"/>
-    <hyperlink ref="A129" r:id="rId128" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11c1_v006"/>
-    <hyperlink ref="A130" r:id="rId129" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11c2_v006"/>
-    <hyperlink ref="A131" r:id="rId130" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd11c3_v006"/>
-    <hyperlink ref="A132" r:id="rId131" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13a1_v006"/>
-    <hyperlink ref="A133" r:id="rId132" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13a2_v006"/>
-    <hyperlink ref="A134" r:id="rId133" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13a3_v006"/>
-    <hyperlink ref="A135" r:id="rId134" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13c1_v006"/>
-    <hyperlink ref="A136" r:id="rId135" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13c2_v006"/>
-    <hyperlink ref="A137" r:id="rId136" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd13q1_v006"/>
-    <hyperlink ref="A138" r:id="rId137" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd14_v006"/>
-    <hyperlink ref="A139" r:id="rId138" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd14a1_v006"/>
-    <hyperlink ref="A140" r:id="rId139" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd14a2_v006"/>
-    <hyperlink ref="A141" r:id="rId140" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd15a2h_v006"/>
-    <hyperlink ref="A142" r:id="rId141" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd16a2_v006"/>
-    <hyperlink ref="A143" r:id="rId142" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd16a3_v006"/>
-    <hyperlink ref="A144" r:id="rId143" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd17a2h_v006"/>
-    <hyperlink ref="A145" r:id="rId144" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd17a3h_v006"/>
-    <hyperlink ref="A146" r:id="rId145" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd21_v006"/>
-    <hyperlink ref="A147" r:id="rId146" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd21a1d_v006"/>
-    <hyperlink ref="A148" r:id="rId147" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd21a1n_v006"/>
-    <hyperlink ref="A149" r:id="rId148" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/myd21a2_v006"/>
-    <hyperlink ref="A150" r:id="rId149" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mydocga_v006"/>
-    <hyperlink ref="A151" r:id="rId150" display="https://lpdaac.usgs.gov/dataset_discovery/modis/modis_products_table/mydtbga_v006"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId151"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/external/modland_products.xlsx
+++ b/inst/external/modland_products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florianD\Coding\repo\MODIS\inst\external\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florianD\Coding\Git\MODIS\inst\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81623B15-4380-4D23-A777-2DF81BA6D318}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F300FF-11C0-493D-998B-75737B726BC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 4 - 5.5" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>MOD44W</t>
+  </si>
+  <si>
+    <t>MOD03</t>
+  </si>
+  <si>
+    <t>Geolocation Fields</t>
+  </si>
+  <si>
+    <t>MYD03</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1032,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,24 +2535,24 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="D88" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>25</v>
@@ -2552,15 +2561,15 @@
         <v>26</v>
       </c>
       <c r="D89" s="2">
-        <v>5600</v>
+        <v>500</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>25</v>
@@ -2568,8 +2577,8 @@
       <c r="C90" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>30</v>
+      <c r="D90" s="2">
+        <v>5600</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>28</v>
@@ -2577,7 +2586,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>25</v>
@@ -2585,8 +2594,8 @@
       <c r="C91" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="2">
-        <v>250</v>
+      <c r="D91" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>28</v>
@@ -2594,7 +2603,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>25</v>
@@ -2606,29 +2615,29 @@
         <v>250</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D93" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>25</v>
@@ -2640,12 +2649,12 @@
         <v>1000</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>25</v>
@@ -2657,12 +2666,12 @@
         <v>1000</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>25</v>
@@ -2671,15 +2680,15 @@
         <v>34</v>
       </c>
       <c r="D96" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>25</v>
@@ -2691,46 +2700,46 @@
         <v>5600</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>5600</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D99" s="2">
         <v>5600</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>25</v>
@@ -2742,12 +2751,12 @@
         <v>5600</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>25</v>
@@ -2759,29 +2768,29 @@
         <v>5600</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>25</v>
@@ -2790,7 +2799,7 @@
         <v>43</v>
       </c>
       <c r="D103" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
@@ -2798,7 +2807,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>25</v>
@@ -2810,12 +2819,12 @@
         <v>1000</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>25</v>
@@ -2824,15 +2833,15 @@
         <v>43</v>
       </c>
       <c r="D105" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>25</v>
@@ -2844,12 +2853,12 @@
         <v>5600</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>25</v>
@@ -2858,32 +2867,32 @@
         <v>43</v>
       </c>
       <c r="D107" s="2">
-        <v>250</v>
+        <v>5600</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D108" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>25</v>
@@ -2895,12 +2904,12 @@
         <v>1000</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>25</v>
@@ -2912,21 +2921,21 @@
         <v>1000</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
@@ -2934,13 +2943,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="D112" s="2">
         <v>500</v>
@@ -2951,7 +2960,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>25</v>
@@ -2963,63 +2972,63 @@
         <v>500</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="D114" s="2">
         <v>500</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D115" s="2">
         <v>500</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D116" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>25</v>
@@ -3036,7 +3045,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>25</v>
@@ -3053,7 +3062,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>25</v>
@@ -3065,35 +3074,35 @@
         <v>1000</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D121" s="2">
         <v>250</v>
@@ -3104,24 +3113,24 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D122" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>25</v>
@@ -3138,41 +3147,41 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="D125" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>58</v>
@@ -3180,16 +3189,16 @@
       <c r="C126" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>30</v>
+      <c r="D126" s="2">
+        <v>500</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>58</v>
@@ -3198,7 +3207,7 @@
         <v>26</v>
       </c>
       <c r="D127" s="2">
-        <v>250</v>
+        <v>5600</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>28</v>
@@ -3206,7 +3215,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>58</v>
@@ -3214,50 +3223,50 @@
       <c r="C128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D128" s="2">
-        <v>250</v>
+      <c r="D128" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D129" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D130" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>58</v>
@@ -3269,12 +3278,12 @@
         <v>1000</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>58</v>
@@ -3283,7 +3292,7 @@
         <v>34</v>
       </c>
       <c r="D132" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>28</v>
@@ -3291,7 +3300,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>58</v>
@@ -3300,7 +3309,7 @@
         <v>34</v>
       </c>
       <c r="D133" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
@@ -3308,7 +3317,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
@@ -3320,12 +3329,12 @@
         <v>5600</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>58</v>
@@ -3337,12 +3346,12 @@
         <v>5600</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>58</v>
@@ -3354,12 +3363,12 @@
         <v>5600</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>58</v>
@@ -3371,21 +3380,21 @@
         <v>5600</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>12</v>
@@ -3393,24 +3402,24 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>58</v>
@@ -3419,15 +3428,15 @@
         <v>43</v>
       </c>
       <c r="D140" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>58</v>
@@ -3436,7 +3445,7 @@
         <v>43</v>
       </c>
       <c r="D141" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>12</v>
@@ -3444,7 +3453,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>58</v>
@@ -3453,7 +3462,7 @@
         <v>43</v>
       </c>
       <c r="D142" s="2">
-        <v>5600</v>
+        <v>1000</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>23</v>
@@ -3461,7 +3470,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>58</v>
@@ -3470,7 +3479,7 @@
         <v>43</v>
       </c>
       <c r="D143" s="2">
-        <v>250</v>
+        <v>5600</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>12</v>
@@ -3478,41 +3487,41 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D144" s="2">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D145" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>58</v>
@@ -3524,38 +3533,38 @@
         <v>1000</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D147" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="D148" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
@@ -3563,30 +3572,30 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="D149" s="2">
         <v>500</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="D150" s="2">
         <v>500</v>
@@ -3596,59 +3605,59 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>174</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="A151" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C151" t="s">
-        <v>54</v>
-      </c>
-      <c r="D151">
+      <c r="C151" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D151" s="2">
         <v>500</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>175</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="A152" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C152" t="s">
-        <v>34</v>
-      </c>
-      <c r="D152">
-        <v>1000</v>
-      </c>
-      <c r="E152" t="s">
-        <v>28</v>
+      <c r="C152" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D152" s="2">
+        <v>500</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B153" t="s">
         <v>58</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D153">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B154" t="s">
         <v>58</v>
@@ -3665,7 +3674,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B155" t="s">
         <v>58</v>
@@ -3677,18 +3686,18 @@
         <v>1000</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
         <v>58</v>
       </c>
       <c r="C156" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D156">
         <v>1000</v>
@@ -3699,18 +3708,52 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B157" t="s">
         <v>58</v>
       </c>
       <c r="C157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157">
+        <v>1000</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" t="s">
+        <v>58</v>
+      </c>
+      <c r="C158" t="s">
         <v>26</v>
       </c>
-      <c r="D157">
-        <v>1000</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="D158">
+        <v>1000</v>
+      </c>
+      <c r="E158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" t="s">
+        <v>58</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159">
+        <v>1000</v>
+      </c>
+      <c r="E159" t="s">
         <v>28</v>
       </c>
     </row>
